--- a/data/raw/election/voters-age-sex-education/2023/Kırşehir.xlsx
+++ b/data/raw/election/voters-age-sex-education/2023/Kırşehir.xlsx
@@ -5,22 +5,21 @@
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\User\OneDrive - baskent.edu.tr\MAKALE\2024\5-anomaly-detection-in-elections\data\2023-iibs3-age_sex_education\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Neo\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12225"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12345"/>
   </bookViews>
   <sheets>
-    <sheet name="Kurtarılan_Sayfa1" sheetId="2" r:id="rId1"/>
+    <sheet name="18-10-2024-16:48:44-19768577777" sheetId="2" r:id="rId1"/>
   </sheets>
   <calcPr calcId="0"/>
-  <fileRecoveryPr repairLoad="1"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="653" uniqueCount="34">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="655" uniqueCount="36">
   <si>
     <t>Kırşehir</t>
   </si>
@@ -122,6 +121,12 @@
   </si>
   <si>
     <t>Mucur</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Not. 1.Seçmenlerin yaşı, 14 Mayıs 2023 tarihine göre gün, ay ve yıl dikkate alınarak hesaplanmıştır. </t>
+  </si>
+  <si>
+    <t>2.Seçmenlerin eğitim durumu, Ulusal Eğitim İstatistikleri Veri Tabanı'ndan alınmıştır.</t>
   </si>
 </sst>
 </file>
@@ -655,7 +660,7 @@
     <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="17" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" wrapText="1" readingOrder="1"/>
@@ -675,10 +680,19 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1"/>
+    <xf numFmtId="3" fontId="18" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right" wrapText="1" readingOrder="1"/>
+    </xf>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1" readingOrder="1"/>
     </xf>
+    <xf numFmtId="3" fontId="20" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="42">
     <cellStyle name="%20 - Vurgu1" xfId="19" builtinId="30" customBuiltin="1"/>
@@ -1003,10 +1017,10 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:N186"/>
+  <dimension ref="A1:N188"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A153" workbookViewId="0">
-      <selection activeCell="A187" sqref="A187:A188"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="O20" sqref="O20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1026,20 +1040,20 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="7"/>
-      <c r="B1" s="7"/>
-      <c r="C1" s="7"/>
-      <c r="D1" s="7"/>
-      <c r="E1" s="7"/>
-      <c r="F1" s="7"/>
-      <c r="G1" s="7"/>
-      <c r="H1" s="7"/>
-      <c r="I1" s="7"/>
-      <c r="J1" s="7"/>
-      <c r="K1" s="7"/>
-      <c r="L1" s="7"/>
-      <c r="M1" s="7"/>
-      <c r="N1" s="7"/>
+      <c r="A1" s="11"/>
+      <c r="B1" s="11"/>
+      <c r="C1" s="11"/>
+      <c r="D1" s="11"/>
+      <c r="E1" s="11"/>
+      <c r="F1" s="11"/>
+      <c r="G1" s="11"/>
+      <c r="H1" s="11"/>
+      <c r="I1" s="11"/>
+      <c r="J1" s="11"/>
+      <c r="K1" s="11"/>
+      <c r="L1" s="11"/>
+      <c r="M1" s="11"/>
+      <c r="N1" s="11"/>
     </row>
     <row r="2" spans="1:14" ht="15.75" thickTop="1" x14ac:dyDescent="0.25"/>
     <row r="3" spans="1:14" x14ac:dyDescent="0.25">
@@ -2073,8 +2087,8 @@
       <c r="D30" s="5">
         <v>307</v>
       </c>
-      <c r="E30" s="5">
-        <v>1.01</v>
+      <c r="E30" s="7">
+        <v>1010</v>
       </c>
       <c r="F30" s="5">
         <v>247</v>
@@ -2097,8 +2111,8 @@
       <c r="L30" s="5">
         <v>33</v>
       </c>
-      <c r="M30" s="5">
-        <v>3.0880000000000001</v>
+      <c r="M30" s="7">
+        <v>3088</v>
       </c>
     </row>
     <row r="31" spans="1:13" ht="23.25" x14ac:dyDescent="0.25">
@@ -3111,8 +3125,8 @@
       <c r="D56" s="5">
         <v>420</v>
       </c>
-      <c r="E56" s="5">
-        <v>2.101</v>
+      <c r="E56" s="7">
+        <v>2101</v>
       </c>
       <c r="F56" s="5">
         <v>445</v>
@@ -3120,8 +3134,8 @@
       <c r="G56" s="5">
         <v>884</v>
       </c>
-      <c r="H56" s="5">
-        <v>1.1990000000000001</v>
+      <c r="H56" s="7">
+        <v>1199</v>
       </c>
       <c r="I56" s="5">
         <v>468</v>
@@ -3135,8 +3149,8 @@
       <c r="L56" s="5">
         <v>65</v>
       </c>
-      <c r="M56" s="5">
-        <v>5.9279999999999999</v>
+      <c r="M56" s="7">
+        <v>5928</v>
       </c>
     </row>
     <row r="57" spans="1:13" ht="23.25" x14ac:dyDescent="0.25">
@@ -4149,8 +4163,8 @@
       <c r="D82" s="5">
         <v>287</v>
       </c>
-      <c r="E82" s="5">
-        <v>1.216</v>
+      <c r="E82" s="7">
+        <v>1216</v>
       </c>
       <c r="F82" s="5">
         <v>357</v>
@@ -4158,8 +4172,8 @@
       <c r="G82" s="5">
         <v>545</v>
       </c>
-      <c r="H82" s="5">
-        <v>1.133</v>
+      <c r="H82" s="7">
+        <v>1133</v>
       </c>
       <c r="I82" s="5">
         <v>459</v>
@@ -4173,8 +4187,8 @@
       <c r="L82" s="5">
         <v>36</v>
       </c>
-      <c r="M82" s="5">
-        <v>4.274</v>
+      <c r="M82" s="7">
+        <v>4274</v>
       </c>
     </row>
     <row r="83" spans="1:13" ht="23.25" x14ac:dyDescent="0.25">
@@ -5184,23 +5198,23 @@
       <c r="C108" s="5">
         <v>431</v>
       </c>
-      <c r="D108" s="5">
-        <v>1.0069999999999999</v>
-      </c>
-      <c r="E108" s="5">
-        <v>3.1760000000000002</v>
-      </c>
-      <c r="F108" s="5">
-        <v>1.0329999999999999</v>
-      </c>
-      <c r="G108" s="5">
-        <v>1.5189999999999999</v>
-      </c>
-      <c r="H108" s="5">
-        <v>2.532</v>
-      </c>
-      <c r="I108" s="5">
-        <v>1.0629999999999999</v>
+      <c r="D108" s="7">
+        <v>1007</v>
+      </c>
+      <c r="E108" s="7">
+        <v>3176</v>
+      </c>
+      <c r="F108" s="7">
+        <v>1033</v>
+      </c>
+      <c r="G108" s="7">
+        <v>1519</v>
+      </c>
+      <c r="H108" s="7">
+        <v>2532</v>
+      </c>
+      <c r="I108" s="7">
+        <v>1063</v>
       </c>
       <c r="J108" s="5">
         <v>82</v>
@@ -5211,8 +5225,8 @@
       <c r="L108" s="5">
         <v>84</v>
       </c>
-      <c r="M108" s="5">
-        <v>10.930999999999999</v>
+      <c r="M108" s="7">
+        <v>10931</v>
       </c>
     </row>
     <row r="109" spans="1:13" ht="23.25" x14ac:dyDescent="0.25">
@@ -5276,8 +5290,8 @@
       <c r="G110" s="4">
         <v>262</v>
       </c>
-      <c r="H110" s="4">
-        <v>1.046</v>
+      <c r="H110" s="9">
+        <v>1046</v>
       </c>
       <c r="I110" s="4">
         <v>194</v>
@@ -5291,8 +5305,8 @@
       <c r="L110" s="4">
         <v>11</v>
       </c>
-      <c r="M110" s="5">
-        <v>1.577</v>
+      <c r="M110" s="7">
+        <v>1577</v>
       </c>
     </row>
     <row r="111" spans="1:13" x14ac:dyDescent="0.25">
@@ -5330,8 +5344,8 @@
       <c r="L111" s="4">
         <v>11</v>
       </c>
-      <c r="M111" s="5">
-        <v>1.5660000000000001</v>
+      <c r="M111" s="7">
+        <v>1566</v>
       </c>
     </row>
     <row r="112" spans="1:13" x14ac:dyDescent="0.25">
@@ -5531,8 +5545,8 @@
       <c r="L116" s="4">
         <v>12</v>
       </c>
-      <c r="M116" s="5">
-        <v>1.0289999999999999</v>
+      <c r="M116" s="7">
+        <v>1029</v>
       </c>
     </row>
     <row r="117" spans="1:13" x14ac:dyDescent="0.25">
@@ -5611,8 +5625,8 @@
       <c r="L118" s="4">
         <v>16</v>
       </c>
-      <c r="M118" s="5">
-        <v>1.1140000000000001</v>
+      <c r="M118" s="7">
+        <v>1114</v>
       </c>
     </row>
     <row r="119" spans="1:13" x14ac:dyDescent="0.25">
@@ -5650,8 +5664,8 @@
       <c r="L119" s="4">
         <v>9</v>
       </c>
-      <c r="M119" s="5">
-        <v>1.0029999999999999</v>
+      <c r="M119" s="7">
+        <v>1003</v>
       </c>
     </row>
     <row r="120" spans="1:13" x14ac:dyDescent="0.25">
@@ -5691,8 +5705,8 @@
       <c r="L120" s="4">
         <v>19</v>
       </c>
-      <c r="M120" s="5">
-        <v>1.0960000000000001</v>
+      <c r="M120" s="7">
+        <v>1096</v>
       </c>
     </row>
     <row r="121" spans="1:13" x14ac:dyDescent="0.25">
@@ -5730,8 +5744,8 @@
       <c r="L121" s="4">
         <v>19</v>
       </c>
-      <c r="M121" s="5">
-        <v>1.0529999999999999</v>
+      <c r="M121" s="7">
+        <v>1053</v>
       </c>
     </row>
     <row r="122" spans="1:13" x14ac:dyDescent="0.25">
@@ -5771,8 +5785,8 @@
       <c r="L122" s="4">
         <v>21</v>
       </c>
-      <c r="M122" s="5">
-        <v>1.161</v>
+      <c r="M122" s="7">
+        <v>1161</v>
       </c>
     </row>
     <row r="123" spans="1:13" x14ac:dyDescent="0.25">
@@ -5810,8 +5824,8 @@
       <c r="L123" s="4">
         <v>17</v>
       </c>
-      <c r="M123" s="5">
-        <v>1.1140000000000001</v>
+      <c r="M123" s="7">
+        <v>1114</v>
       </c>
     </row>
     <row r="124" spans="1:13" x14ac:dyDescent="0.25">
@@ -5851,8 +5865,8 @@
       <c r="L124" s="4">
         <v>26</v>
       </c>
-      <c r="M124" s="5">
-        <v>1.2829999999999999</v>
+      <c r="M124" s="7">
+        <v>1283</v>
       </c>
     </row>
     <row r="125" spans="1:13" x14ac:dyDescent="0.25">
@@ -5890,8 +5904,8 @@
       <c r="L125" s="4">
         <v>26</v>
       </c>
-      <c r="M125" s="5">
-        <v>1.226</v>
+      <c r="M125" s="7">
+        <v>1226</v>
       </c>
     </row>
     <row r="126" spans="1:13" x14ac:dyDescent="0.25">
@@ -5931,8 +5945,8 @@
       <c r="L126" s="4">
         <v>21</v>
       </c>
-      <c r="M126" s="5">
-        <v>1.24</v>
+      <c r="M126" s="7">
+        <v>1240</v>
       </c>
     </row>
     <row r="127" spans="1:13" x14ac:dyDescent="0.25">
@@ -5970,8 +5984,8 @@
       <c r="L127" s="4">
         <v>22</v>
       </c>
-      <c r="M127" s="5">
-        <v>1.282</v>
+      <c r="M127" s="7">
+        <v>1282</v>
       </c>
     </row>
     <row r="128" spans="1:13" x14ac:dyDescent="0.25">
@@ -6011,8 +6025,8 @@
       <c r="L128" s="4">
         <v>20</v>
       </c>
-      <c r="M128" s="5">
-        <v>1.056</v>
+      <c r="M128" s="7">
+        <v>1056</v>
       </c>
     </row>
     <row r="129" spans="1:13" x14ac:dyDescent="0.25">
@@ -6050,8 +6064,8 @@
       <c r="L129" s="4">
         <v>18</v>
       </c>
-      <c r="M129" s="5">
-        <v>1.1679999999999999</v>
+      <c r="M129" s="7">
+        <v>1168</v>
       </c>
     </row>
     <row r="130" spans="1:13" x14ac:dyDescent="0.25">
@@ -6210,8 +6224,8 @@
       <c r="L133" s="4">
         <v>21</v>
       </c>
-      <c r="M133" s="5">
-        <v>1.53</v>
+      <c r="M133" s="7">
+        <v>1530</v>
       </c>
     </row>
     <row r="134" spans="1:13" x14ac:dyDescent="0.25">
@@ -6219,26 +6233,26 @@
         <v>12</v>
       </c>
       <c r="B134" s="6"/>
-      <c r="C134" s="5">
-        <v>1.0369999999999999</v>
-      </c>
-      <c r="D134" s="5">
-        <v>1.177</v>
-      </c>
-      <c r="E134" s="5">
-        <v>7.516</v>
-      </c>
-      <c r="F134" s="5">
-        <v>2.3620000000000001</v>
-      </c>
-      <c r="G134" s="5">
-        <v>3.7370000000000001</v>
-      </c>
-      <c r="H134" s="5">
-        <v>6.82</v>
-      </c>
-      <c r="I134" s="5">
-        <v>3.2189999999999999</v>
+      <c r="C134" s="7">
+        <v>1037</v>
+      </c>
+      <c r="D134" s="7">
+        <v>1177</v>
+      </c>
+      <c r="E134" s="7">
+        <v>7516</v>
+      </c>
+      <c r="F134" s="7">
+        <v>2362</v>
+      </c>
+      <c r="G134" s="7">
+        <v>3737</v>
+      </c>
+      <c r="H134" s="7">
+        <v>6820</v>
+      </c>
+      <c r="I134" s="7">
+        <v>3219</v>
       </c>
       <c r="J134" s="5">
         <v>257</v>
@@ -6249,8 +6263,8 @@
       <c r="L134" s="5">
         <v>400</v>
       </c>
-      <c r="M134" s="5">
-        <v>26.553999999999998</v>
+      <c r="M134" s="7">
+        <v>26554</v>
       </c>
     </row>
     <row r="135" spans="1:13" ht="23.25" x14ac:dyDescent="0.25">
@@ -6311,14 +6325,14 @@
       <c r="F136" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="G136" s="4">
-        <v>1.1439999999999999</v>
-      </c>
-      <c r="H136" s="4">
-        <v>5.3739999999999997</v>
-      </c>
-      <c r="I136" s="4">
-        <v>1.0169999999999999</v>
+      <c r="G136" s="9">
+        <v>1144</v>
+      </c>
+      <c r="H136" s="9">
+        <v>5374</v>
+      </c>
+      <c r="I136" s="9">
+        <v>1017</v>
       </c>
       <c r="J136" s="4">
         <v>14</v>
@@ -6329,8 +6343,8 @@
       <c r="L136" s="4">
         <v>77</v>
       </c>
-      <c r="M136" s="5">
-        <v>7.6779999999999999</v>
+      <c r="M136" s="7">
+        <v>7678</v>
       </c>
     </row>
     <row r="137" spans="1:13" x14ac:dyDescent="0.25">
@@ -6350,14 +6364,14 @@
       <c r="F137" s="4">
         <v>3</v>
       </c>
-      <c r="G137" s="4">
-        <v>1.036</v>
-      </c>
-      <c r="H137" s="4">
-        <v>4.6870000000000003</v>
-      </c>
-      <c r="I137" s="4">
-        <v>1.486</v>
+      <c r="G137" s="9">
+        <v>1036</v>
+      </c>
+      <c r="H137" s="9">
+        <v>4687</v>
+      </c>
+      <c r="I137" s="9">
+        <v>1486</v>
       </c>
       <c r="J137" s="4">
         <v>12</v>
@@ -6368,8 +6382,8 @@
       <c r="L137" s="4">
         <v>55</v>
       </c>
-      <c r="M137" s="5">
-        <v>7.3419999999999996</v>
+      <c r="M137" s="7">
+        <v>7342</v>
       </c>
     </row>
     <row r="138" spans="1:13" x14ac:dyDescent="0.25">
@@ -6394,11 +6408,11 @@
       <c r="G138" s="4">
         <v>848</v>
       </c>
-      <c r="H138" s="4">
-        <v>1.62</v>
-      </c>
-      <c r="I138" s="4">
-        <v>2.09</v>
+      <c r="H138" s="9">
+        <v>1620</v>
+      </c>
+      <c r="I138" s="9">
+        <v>2090</v>
       </c>
       <c r="J138" s="4">
         <v>202</v>
@@ -6409,8 +6423,8 @@
       <c r="L138" s="4">
         <v>47</v>
       </c>
-      <c r="M138" s="5">
-        <v>4.8680000000000003</v>
+      <c r="M138" s="7">
+        <v>4868</v>
       </c>
     </row>
     <row r="139" spans="1:13" x14ac:dyDescent="0.25">
@@ -6433,11 +6447,11 @@
       <c r="G139" s="4">
         <v>836</v>
       </c>
-      <c r="H139" s="4">
-        <v>1.2430000000000001</v>
-      </c>
-      <c r="I139" s="4">
-        <v>2.617</v>
+      <c r="H139" s="9">
+        <v>1243</v>
+      </c>
+      <c r="I139" s="9">
+        <v>2617</v>
       </c>
       <c r="J139" s="4">
         <v>278</v>
@@ -6448,8 +6462,8 @@
       <c r="L139" s="4">
         <v>44</v>
       </c>
-      <c r="M139" s="5">
-        <v>5.1970000000000001</v>
+      <c r="M139" s="7">
+        <v>5197</v>
       </c>
     </row>
     <row r="140" spans="1:13" x14ac:dyDescent="0.25">
@@ -6474,11 +6488,11 @@
       <c r="G140" s="4">
         <v>480</v>
       </c>
-      <c r="H140" s="4">
-        <v>1.542</v>
-      </c>
-      <c r="I140" s="4">
-        <v>1.802</v>
+      <c r="H140" s="9">
+        <v>1542</v>
+      </c>
+      <c r="I140" s="9">
+        <v>1802</v>
       </c>
       <c r="J140" s="4">
         <v>301</v>
@@ -6489,8 +6503,8 @@
       <c r="L140" s="4">
         <v>52</v>
       </c>
-      <c r="M140" s="5">
-        <v>4.76</v>
+      <c r="M140" s="7">
+        <v>4760</v>
       </c>
     </row>
     <row r="141" spans="1:13" x14ac:dyDescent="0.25">
@@ -6513,11 +6527,11 @@
       <c r="G141" s="4">
         <v>399</v>
       </c>
-      <c r="H141" s="4">
-        <v>1.4430000000000001</v>
-      </c>
-      <c r="I141" s="4">
-        <v>2.105</v>
+      <c r="H141" s="9">
+        <v>1443</v>
+      </c>
+      <c r="I141" s="9">
+        <v>2105</v>
       </c>
       <c r="J141" s="4">
         <v>329</v>
@@ -6528,8 +6542,8 @@
       <c r="L141" s="4">
         <v>39</v>
       </c>
-      <c r="M141" s="5">
-        <v>5.2380000000000004</v>
+      <c r="M141" s="7">
+        <v>5238</v>
       </c>
     </row>
     <row r="142" spans="1:13" x14ac:dyDescent="0.25">
@@ -6554,11 +6568,11 @@
       <c r="G142" s="4">
         <v>465</v>
       </c>
-      <c r="H142" s="4">
-        <v>1.9510000000000001</v>
-      </c>
-      <c r="I142" s="4">
-        <v>1.6830000000000001</v>
+      <c r="H142" s="9">
+        <v>1951</v>
+      </c>
+      <c r="I142" s="9">
+        <v>1683</v>
       </c>
       <c r="J142" s="4">
         <v>349</v>
@@ -6569,8 +6583,8 @@
       <c r="L142" s="4">
         <v>44</v>
       </c>
-      <c r="M142" s="5">
-        <v>5.4480000000000004</v>
+      <c r="M142" s="7">
+        <v>5448</v>
       </c>
     </row>
     <row r="143" spans="1:13" x14ac:dyDescent="0.25">
@@ -6593,11 +6607,11 @@
       <c r="G143" s="4">
         <v>467</v>
       </c>
-      <c r="H143" s="4">
-        <v>1.7010000000000001</v>
-      </c>
-      <c r="I143" s="4">
-        <v>1.7190000000000001</v>
+      <c r="H143" s="9">
+        <v>1701</v>
+      </c>
+      <c r="I143" s="9">
+        <v>1719</v>
       </c>
       <c r="J143" s="4">
         <v>243</v>
@@ -6608,8 +6622,8 @@
       <c r="L143" s="4">
         <v>58</v>
       </c>
-      <c r="M143" s="5">
-        <v>5.4669999999999996</v>
+      <c r="M143" s="7">
+        <v>5467</v>
       </c>
     </row>
     <row r="144" spans="1:13" x14ac:dyDescent="0.25">
@@ -6634,11 +6648,11 @@
       <c r="G144" s="4">
         <v>711</v>
       </c>
-      <c r="H144" s="4">
-        <v>1.9750000000000001</v>
-      </c>
-      <c r="I144" s="4">
-        <v>1.478</v>
+      <c r="H144" s="9">
+        <v>1975</v>
+      </c>
+      <c r="I144" s="9">
+        <v>1478</v>
       </c>
       <c r="J144" s="4">
         <v>343</v>
@@ -6649,8 +6663,8 @@
       <c r="L144" s="4">
         <v>88</v>
       </c>
-      <c r="M144" s="5">
-        <v>5.5410000000000004</v>
+      <c r="M144" s="7">
+        <v>5541</v>
       </c>
     </row>
     <row r="145" spans="1:13" x14ac:dyDescent="0.25">
@@ -6673,11 +6687,11 @@
       <c r="G145" s="4">
         <v>834</v>
       </c>
-      <c r="H145" s="4">
-        <v>1.6739999999999999</v>
-      </c>
-      <c r="I145" s="4">
-        <v>1.29</v>
+      <c r="H145" s="9">
+        <v>1674</v>
+      </c>
+      <c r="I145" s="9">
+        <v>1290</v>
       </c>
       <c r="J145" s="4">
         <v>209</v>
@@ -6688,8 +6702,8 @@
       <c r="L145" s="4">
         <v>61</v>
       </c>
-      <c r="M145" s="5">
-        <v>5.5389999999999997</v>
+      <c r="M145" s="7">
+        <v>5539</v>
       </c>
     </row>
     <row r="146" spans="1:13" x14ac:dyDescent="0.25">
@@ -6714,11 +6728,11 @@
       <c r="G146" s="4">
         <v>720</v>
       </c>
-      <c r="H146" s="4">
-        <v>1.4790000000000001</v>
-      </c>
-      <c r="I146" s="4">
-        <v>1.258</v>
+      <c r="H146" s="9">
+        <v>1479</v>
+      </c>
+      <c r="I146" s="9">
+        <v>1258</v>
       </c>
       <c r="J146" s="4">
         <v>186</v>
@@ -6729,8 +6743,8 @@
       <c r="L146" s="4">
         <v>89</v>
       </c>
-      <c r="M146" s="5">
-        <v>4.835</v>
+      <c r="M146" s="7">
+        <v>4835</v>
       </c>
     </row>
     <row r="147" spans="1:13" x14ac:dyDescent="0.25">
@@ -6744,8 +6758,8 @@
       <c r="D147" s="4">
         <v>36</v>
       </c>
-      <c r="E147" s="4">
-        <v>1.163</v>
+      <c r="E147" s="9">
+        <v>1163</v>
       </c>
       <c r="F147" s="4">
         <v>541</v>
@@ -6753,8 +6767,8 @@
       <c r="G147" s="4">
         <v>852</v>
       </c>
-      <c r="H147" s="4">
-        <v>1.3009999999999999</v>
+      <c r="H147" s="9">
+        <v>1301</v>
       </c>
       <c r="I147" s="4">
         <v>879</v>
@@ -6768,8 +6782,8 @@
       <c r="L147" s="4">
         <v>65</v>
       </c>
-      <c r="M147" s="5">
-        <v>4.9640000000000004</v>
+      <c r="M147" s="7">
+        <v>4964</v>
       </c>
     </row>
     <row r="148" spans="1:13" x14ac:dyDescent="0.25">
@@ -6794,11 +6808,11 @@
       <c r="G148" s="4">
         <v>718</v>
       </c>
-      <c r="H148" s="4">
-        <v>1.252</v>
-      </c>
-      <c r="I148" s="4">
-        <v>1.143</v>
+      <c r="H148" s="9">
+        <v>1252</v>
+      </c>
+      <c r="I148" s="9">
+        <v>1143</v>
       </c>
       <c r="J148" s="4">
         <v>104</v>
@@ -6809,8 +6823,8 @@
       <c r="L148" s="4">
         <v>104</v>
       </c>
-      <c r="M148" s="5">
-        <v>4.57</v>
+      <c r="M148" s="7">
+        <v>4570</v>
       </c>
     </row>
     <row r="149" spans="1:13" x14ac:dyDescent="0.25">
@@ -6824,8 +6838,8 @@
       <c r="D149" s="4">
         <v>52</v>
       </c>
-      <c r="E149" s="4">
-        <v>1.5840000000000001</v>
+      <c r="E149" s="9">
+        <v>1584</v>
       </c>
       <c r="F149" s="4">
         <v>545</v>
@@ -6848,8 +6862,8 @@
       <c r="L149" s="4">
         <v>105</v>
       </c>
-      <c r="M149" s="5">
-        <v>4.6269999999999998</v>
+      <c r="M149" s="7">
+        <v>4627</v>
       </c>
     </row>
     <row r="150" spans="1:13" x14ac:dyDescent="0.25">
@@ -6874,8 +6888,8 @@
       <c r="G150" s="4">
         <v>731</v>
       </c>
-      <c r="H150" s="4">
-        <v>1.224</v>
+      <c r="H150" s="9">
+        <v>1224</v>
       </c>
       <c r="I150" s="4">
         <v>819</v>
@@ -6889,8 +6903,8 @@
       <c r="L150" s="4">
         <v>145</v>
       </c>
-      <c r="M150" s="5">
-        <v>4.4169999999999998</v>
+      <c r="M150" s="7">
+        <v>4417</v>
       </c>
     </row>
     <row r="151" spans="1:13" x14ac:dyDescent="0.25">
@@ -6904,8 +6918,8 @@
       <c r="D151" s="4">
         <v>102</v>
       </c>
-      <c r="E151" s="4">
-        <v>2.2090000000000001</v>
+      <c r="E151" s="9">
+        <v>2209</v>
       </c>
       <c r="F151" s="4">
         <v>432</v>
@@ -6928,8 +6942,8 @@
       <c r="L151" s="4">
         <v>132</v>
       </c>
-      <c r="M151" s="5">
-        <v>4.6070000000000002</v>
+      <c r="M151" s="7">
+        <v>4607</v>
       </c>
     </row>
     <row r="152" spans="1:13" x14ac:dyDescent="0.25">
@@ -6945,8 +6959,8 @@
       <c r="D152" s="4">
         <v>26</v>
       </c>
-      <c r="E152" s="4">
-        <v>1.077</v>
+      <c r="E152" s="9">
+        <v>1077</v>
       </c>
       <c r="F152" s="4">
         <v>411</v>
@@ -6954,8 +6968,8 @@
       <c r="G152" s="4">
         <v>495</v>
       </c>
-      <c r="H152" s="4">
-        <v>1.079</v>
+      <c r="H152" s="9">
+        <v>1079</v>
       </c>
       <c r="I152" s="4">
         <v>580</v>
@@ -6969,8 +6983,8 @@
       <c r="L152" s="4">
         <v>156</v>
       </c>
-      <c r="M152" s="5">
-        <v>3.87</v>
+      <c r="M152" s="7">
+        <v>3870</v>
       </c>
     </row>
     <row r="153" spans="1:13" x14ac:dyDescent="0.25">
@@ -6984,8 +6998,8 @@
       <c r="D153" s="4">
         <v>172</v>
       </c>
-      <c r="E153" s="4">
-        <v>2.3319999999999999</v>
+      <c r="E153" s="9">
+        <v>2332</v>
       </c>
       <c r="F153" s="4">
         <v>204</v>
@@ -7008,8 +7022,8 @@
       <c r="L153" s="4">
         <v>118</v>
       </c>
-      <c r="M153" s="5">
-        <v>3.9609999999999999</v>
+      <c r="M153" s="7">
+        <v>3961</v>
       </c>
     </row>
     <row r="154" spans="1:13" x14ac:dyDescent="0.25">
@@ -7025,8 +7039,8 @@
       <c r="D154" s="4">
         <v>42</v>
       </c>
-      <c r="E154" s="4">
-        <v>1.153</v>
+      <c r="E154" s="9">
+        <v>1153</v>
       </c>
       <c r="F154" s="4">
         <v>175</v>
@@ -7049,8 +7063,8 @@
       <c r="L154" s="4">
         <v>113</v>
       </c>
-      <c r="M154" s="5">
-        <v>3.0569999999999999</v>
+      <c r="M154" s="7">
+        <v>3057</v>
       </c>
     </row>
     <row r="155" spans="1:13" x14ac:dyDescent="0.25">
@@ -7064,8 +7078,8 @@
       <c r="D155" s="4">
         <v>304</v>
       </c>
-      <c r="E155" s="4">
-        <v>2.0179999999999998</v>
+      <c r="E155" s="9">
+        <v>2018</v>
       </c>
       <c r="F155" s="4">
         <v>78</v>
@@ -7088,8 +7102,8 @@
       <c r="L155" s="4">
         <v>141</v>
       </c>
-      <c r="M155" s="5">
-        <v>3.3340000000000001</v>
+      <c r="M155" s="7">
+        <v>3334</v>
       </c>
     </row>
     <row r="156" spans="1:13" x14ac:dyDescent="0.25">
@@ -7105,8 +7119,8 @@
       <c r="D156" s="4">
         <v>50</v>
       </c>
-      <c r="E156" s="4">
-        <v>1.0009999999999999</v>
+      <c r="E156" s="9">
+        <v>1001</v>
       </c>
       <c r="F156" s="4">
         <v>71</v>
@@ -7129,8 +7143,8 @@
       <c r="L156" s="4">
         <v>95</v>
       </c>
-      <c r="M156" s="5">
-        <v>1.952</v>
+      <c r="M156" s="7">
+        <v>1952</v>
       </c>
     </row>
     <row r="157" spans="1:13" x14ac:dyDescent="0.25">
@@ -7144,8 +7158,8 @@
       <c r="D157" s="4">
         <v>369</v>
       </c>
-      <c r="E157" s="4">
-        <v>1.2350000000000001</v>
+      <c r="E157" s="9">
+        <v>1235</v>
       </c>
       <c r="F157" s="4">
         <v>17</v>
@@ -7168,8 +7182,8 @@
       <c r="L157" s="4">
         <v>96</v>
       </c>
-      <c r="M157" s="5">
-        <v>2.3220000000000001</v>
+      <c r="M157" s="7">
+        <v>2322</v>
       </c>
     </row>
     <row r="158" spans="1:13" x14ac:dyDescent="0.25">
@@ -7185,8 +7199,8 @@
       <c r="D158" s="4">
         <v>172</v>
       </c>
-      <c r="E158" s="4">
-        <v>1.226</v>
+      <c r="E158" s="9">
+        <v>1226</v>
       </c>
       <c r="F158" s="4">
         <v>24</v>
@@ -7209,8 +7223,8 @@
       <c r="L158" s="4">
         <v>112</v>
       </c>
-      <c r="M158" s="5">
-        <v>2.109</v>
+      <c r="M158" s="7">
+        <v>2109</v>
       </c>
     </row>
     <row r="159" spans="1:13" x14ac:dyDescent="0.25">
@@ -7218,14 +7232,14 @@
       <c r="B159" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="C159" s="4">
-        <v>1.18</v>
+      <c r="C159" s="9">
+        <v>1180</v>
       </c>
       <c r="D159" s="4">
         <v>710</v>
       </c>
-      <c r="E159" s="4">
-        <v>1.153</v>
+      <c r="E159" s="9">
+        <v>1153</v>
       </c>
       <c r="F159" s="4">
         <v>5</v>
@@ -7248,8 +7262,8 @@
       <c r="L159" s="4">
         <v>104</v>
       </c>
-      <c r="M159" s="5">
-        <v>3.3170000000000002</v>
+      <c r="M159" s="7">
+        <v>3317</v>
       </c>
     </row>
     <row r="160" spans="1:13" x14ac:dyDescent="0.25">
@@ -7257,38 +7271,38 @@
         <v>12</v>
       </c>
       <c r="B160" s="6"/>
-      <c r="C160" s="5">
-        <v>2.3140000000000001</v>
-      </c>
-      <c r="D160" s="5">
-        <v>2.4329999999999998</v>
-      </c>
-      <c r="E160" s="5">
-        <v>19.777999999999999</v>
-      </c>
-      <c r="F160" s="5">
-        <v>8.0879999999999992</v>
-      </c>
-      <c r="G160" s="5">
-        <v>13.474</v>
-      </c>
-      <c r="H160" s="5">
-        <v>33.124000000000002</v>
-      </c>
-      <c r="I160" s="5">
-        <v>24.164999999999999</v>
-      </c>
-      <c r="J160" s="5">
-        <v>2.8220000000000001</v>
+      <c r="C160" s="7">
+        <v>2314</v>
+      </c>
+      <c r="D160" s="7">
+        <v>2433</v>
+      </c>
+      <c r="E160" s="7">
+        <v>19778</v>
+      </c>
+      <c r="F160" s="7">
+        <v>8088</v>
+      </c>
+      <c r="G160" s="7">
+        <v>13474</v>
+      </c>
+      <c r="H160" s="7">
+        <v>33124</v>
+      </c>
+      <c r="I160" s="7">
+        <v>24165</v>
+      </c>
+      <c r="J160" s="7">
+        <v>2822</v>
       </c>
       <c r="K160" s="5">
         <v>682</v>
       </c>
-      <c r="L160" s="5">
-        <v>2.14</v>
-      </c>
-      <c r="M160" s="5">
-        <v>109.02</v>
+      <c r="L160" s="7">
+        <v>2140</v>
+      </c>
+      <c r="M160" s="7">
+        <v>109020</v>
       </c>
     </row>
     <row r="161" spans="1:13" ht="23.25" x14ac:dyDescent="0.25">
@@ -8301,20 +8315,20 @@
       <c r="D186" s="5">
         <v>496</v>
       </c>
-      <c r="E186" s="5">
-        <v>4.0599999999999996</v>
-      </c>
-      <c r="F186" s="5">
-        <v>1.198</v>
-      </c>
-      <c r="G186" s="5">
-        <v>2.0910000000000002</v>
-      </c>
-      <c r="H186" s="5">
-        <v>3.956</v>
-      </c>
-      <c r="I186" s="5">
-        <v>1.7909999999999999</v>
+      <c r="E186" s="7">
+        <v>4060</v>
+      </c>
+      <c r="F186" s="7">
+        <v>1198</v>
+      </c>
+      <c r="G186" s="7">
+        <v>2091</v>
+      </c>
+      <c r="H186" s="7">
+        <v>3956</v>
+      </c>
+      <c r="I186" s="7">
+        <v>1791</v>
       </c>
       <c r="J186" s="5">
         <v>130</v>
@@ -8325,8 +8339,18 @@
       <c r="L186" s="5">
         <v>166</v>
       </c>
-      <c r="M186" s="5">
-        <v>14.144</v>
+      <c r="M186" s="7">
+        <v>14144</v>
+      </c>
+    </row>
+    <row r="187" spans="1:13" ht="23.25" x14ac:dyDescent="0.25">
+      <c r="A187" s="10" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="188" spans="1:13" ht="23.25" x14ac:dyDescent="0.25">
+      <c r="A188" s="10" t="s">
+        <v>35</v>
       </c>
     </row>
   </sheetData>
